--- a/src/test/resources/org/bbreak/excella/reports/tag/ColRepeatParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/ColRepeatParamParserTest_expected.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="-270" windowWidth="15480" windowHeight="11640" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="6555" yWindow="-270" windowWidth="15480" windowHeight="11640" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Sheet12" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet13" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet14" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet15" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="84">
   <si>
     <t>AA1</t>
   </si>
@@ -365,6 +366,53 @@
   </si>
   <si>
     <t>コピー元列幅＝「A列=10」、「B列=9」、「C列=11」、「D列=8」</t>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -439,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +578,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -601,7 +655,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,18 +731,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +759,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,7 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1463,7 +1523,151 @@
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="H1" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="K3" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="D4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="N4" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="E5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="H6" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="H7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="H8" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="H9" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1851,47 +2055,47 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="26"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="26"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="26"/>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="26"/>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="26"/>
-      <c r="R2" s="28"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="26"/>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="U2" s="26"/>
-      <c r="V2" s="28"/>
+      <c r="V2" s="25"/>
       <c r="W2" s="26"/>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="26"/>
@@ -1910,60 +2114,60 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="26"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
       <c r="L5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25" t="s">
+      <c r="E6" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="26"/>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="26"/>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="O6" s="26"/>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="26"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="S6" s="26"/>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="26"/>
-      <c r="V6" s="25" t="s">
+      <c r="V6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="W6" s="26"/>
@@ -1999,6 +2203,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2011,19 +2228,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -2038,7 +2242,7 @@
     <hyperlink ref="G6" location="'Sheet3'!A1" display="place"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2069,64 +2273,64 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2" s="17"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26"/>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="29"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="30"/>
-      <c r="P2" s="27"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="26"/>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="V2" s="30"/>
-      <c r="W2" s="27"/>
+      <c r="W2" s="28"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="29"/>
       <c r="AA2" s="26"/>
-      <c r="AB2" s="28"/>
+      <c r="AB2" s="25"/>
       <c r="AC2" s="29"/>
       <c r="AD2" s="26"/>
-      <c r="AE2" s="28" t="s">
+      <c r="AE2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="AF2" s="29"/>
       <c r="AG2" s="26"/>
-      <c r="AH2" s="28"/>
+      <c r="AH2" s="25"/>
       <c r="AI2" s="29"/>
       <c r="AJ2" s="26"/>
-      <c r="AK2" s="28" t="s">
+      <c r="AK2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AL2" s="30"/>
-      <c r="AM2" s="27"/>
+      <c r="AM2" s="28"/>
       <c r="AN2" s="17" t="s">
         <v>45</v>
       </c>
@@ -2167,37 +2371,37 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="17"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="27" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="27" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="30"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="27" t="s">
         <v>49</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="26"/>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="27" t="s">
         <v>49</v>
       </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="26"/>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="27" t="s">
         <v>49</v>
       </c>
       <c r="S5" s="30"/>
-      <c r="T5" s="27"/>
+      <c r="T5" s="28"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -2266,6 +2470,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="B2:D2"/>
@@ -2274,16 +2488,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -2295,7 +2499,7 @@
     <hyperlink ref="R5" location="'Sheet3'!A1" display="place"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2373,7 +2577,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2457,7 +2661,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2542,6 +2746,6 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>